--- a/suiside_vs_jobloss_japan.xlsx
+++ b/suiside_vs_jobloss_japan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSS_Perception\covid19-JP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3A39E8-EF26-4ECF-BDDF-5D07B3EB6210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8940D36-2205-4C86-BB76-CE44F2B65B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{8945FF12-B619-44EE-88E6-5EBE6DA1D955}"/>
   </bookViews>
@@ -3272,8 +3272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF1CBCC-12BF-4134-8C99-08EE694A0613}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
